--- a/Упражнения простые/4.Basic pipe.xlsx
+++ b/Упражнения простые/4.Basic pipe.xlsx
@@ -1,52 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr updateLinks="always" codeName="ЭтаКнига" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\Упражнения простые\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rnt\unifloc_vba\Упражнения простые\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A44A13-66A4-405C-A3F6-C540BE89E939}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23EDDA7-AC7F-4975-AC5C-25A5B9260894}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="14205" windowHeight="8025" tabRatio="591" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="База насосов" sheetId="104" state="hidden" r:id="rId1"/>
-    <sheet name="PVT" sheetId="112" r:id="rId2"/>
+    <sheet name="Pipe" sheetId="112" r:id="rId2"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'База насосов'!$A$3:$O$1267</definedName>
-    <definedName name="Bob_" localSheetId="1">PVT!$C$14</definedName>
-    <definedName name="dpipe_">PVT!$C$19</definedName>
-    <definedName name="fw_">PVT!$C$25</definedName>
-    <definedName name="gamma_gas_" localSheetId="1">PVT!$C$9</definedName>
-    <definedName name="gamma_oil_" localSheetId="1">PVT!$C$7</definedName>
-    <definedName name="gamma_wat_">PVT!$C$8</definedName>
-    <definedName name="H0_">PVT!$C$21</definedName>
-    <definedName name="H1_">PVT!$C$22</definedName>
-    <definedName name="Ksep_">PVT!$D$31</definedName>
-    <definedName name="L_">PVT!$C$23</definedName>
-    <definedName name="muob_">PVT!$C$15</definedName>
-    <definedName name="Pb_" localSheetId="1">PVT!$C$12</definedName>
-    <definedName name="Pin_">PVT!$I$21</definedName>
-    <definedName name="Pout_">PVT!$I$24</definedName>
-    <definedName name="Psep_">PVT!$B$31</definedName>
-    <definedName name="Qliq_">PVT!$C$24</definedName>
-    <definedName name="Rp_" localSheetId="1">PVT!$C$11</definedName>
-    <definedName name="Rsb_" localSheetId="1">PVT!$C$10</definedName>
-    <definedName name="T_">PVT!$C$35</definedName>
-    <definedName name="T0_">PVT!$F$21</definedName>
-    <definedName name="T1_">PVT!$F$22</definedName>
-    <definedName name="theta_">PVT!$C$20</definedName>
-    <definedName name="Tres_" localSheetId="1">PVT!$C$13</definedName>
-    <definedName name="Tsep_">PVT!$C$31</definedName>
+    <definedName name="Bob_" localSheetId="1">Pipe!$C$14</definedName>
+    <definedName name="dpipe_">Pipe!$C$19</definedName>
+    <definedName name="fw_">Pipe!$C$25</definedName>
+    <definedName name="gamma_gas_" localSheetId="1">Pipe!$C$9</definedName>
+    <definedName name="gamma_oil_" localSheetId="1">Pipe!$C$7</definedName>
+    <definedName name="gamma_wat_">Pipe!$C$8</definedName>
+    <definedName name="H0_">Pipe!$C$21</definedName>
+    <definedName name="H1_">Pipe!$C$22</definedName>
+    <definedName name="Ksep_">Pipe!$D$31</definedName>
+    <definedName name="L_">Pipe!$C$23</definedName>
+    <definedName name="muob_">Pipe!$C$15</definedName>
+    <definedName name="Pb_" localSheetId="1">Pipe!$C$12</definedName>
+    <definedName name="Pin_">Pipe!$I$21</definedName>
+    <definedName name="Pout_">Pipe!$I$24</definedName>
+    <definedName name="Psep_">Pipe!$B$31</definedName>
+    <definedName name="Qliq_">Pipe!$C$24</definedName>
+    <definedName name="Rp_" localSheetId="1">Pipe!$C$11</definedName>
+    <definedName name="Rsb_" localSheetId="1">Pipe!$C$10</definedName>
+    <definedName name="T_">Pipe!$C$35</definedName>
+    <definedName name="T0_">Pipe!$F$21</definedName>
+    <definedName name="T1_">Pipe!$F$22</definedName>
+    <definedName name="theta_">Pipe!$C$20</definedName>
+    <definedName name="Tres_" localSheetId="1">Pipe!$C$13</definedName>
+    <definedName name="Tsep_">Pipe!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1266,17 +1266,17 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1311,18 +1311,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>16426</xdr:colOff>
+      <xdr:colOff>339448</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>13587</xdr:rowOff>
+      <xdr:rowOff>162674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>337456</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85193</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47565</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2367</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1337,8 +1337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5113780" y="638332"/>
-          <a:ext cx="5323726" cy="1496215"/>
+          <a:off x="5143361" y="825283"/>
+          <a:ext cx="5025552" cy="1603888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1385,7 +1385,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t>MF macroses for choke flow calculation</a:t>
+            <a:t>MF macroses for pipe flow calculation</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1463,11 +1463,11 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="База насосов"/>
-      <sheetName val="Лист1"/>
+      <sheetName val="ESPbase"/>
+      <sheetName val="Info"/>
     </sheetNames>
     <definedNames>
-      <definedName name="MF_dPpipe_atma"/>
+      <definedName name="MF_dPpipe_atm"/>
       <definedName name="MF_Ppipe_atma"/>
     </definedNames>
     <sheetDataSet>
@@ -1775,7 +1775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Лист13"/>
+  <sheetPr codeName="Worksheet____13"/>
   <dimension ref="B2:Y1267"/>
   <sheetViews>
     <sheetView topLeftCell="A73" workbookViewId="0">
@@ -1809,29 +1809,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="V2" s="23" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="V2" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
     </row>
     <row r="3" spans="2:25" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
@@ -57539,13 +57539,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Лист4">
+  <sheetPr codeName="Worksheet____4">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -57651,7 +57651,7 @@
         <v>80</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E11" s="13">
         <f>Rsb_/gamma_oil_</f>
@@ -57723,12 +57723,12 @@
       <c r="E15" s="9"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="6" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B19" s="14" t="s">
         <v>160</v>
       </c>
@@ -57739,25 +57739,25 @@
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>161</v>
       </c>
       <c r="C20" s="7">
         <v>90</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="22" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B21" s="14" t="s">
         <v>166</v>
       </c>
       <c r="C21" s="7">
         <v>1200</v>
       </c>
-      <c r="D21" s="24"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="11" t="s">
         <v>171</v>
       </c>
@@ -57775,14 +57775,14 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10" ht="18" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="B22" s="14" t="s">
         <v>167</v>
       </c>
       <c r="C22" s="7">
-        <v>1200</v>
-      </c>
-      <c r="D22" s="24"/>
+        <v>1500</v>
+      </c>
+      <c r="D22" s="22"/>
       <c r="E22" s="11" t="s">
         <v>172</v>
       </c>
@@ -57791,19 +57791,19 @@
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" ht="15" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>164</v>
       </c>
       <c r="C23" s="14">
         <f>C22-C21</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="D23" s="22" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11" t="s">
         <v>149</v>
       </c>
@@ -57814,7 +57814,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="16" t="s">
         <v>150</v>
       </c>
@@ -57825,13 +57825,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="6" t="s">
         <v>155</v>
       </c>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B30" s="18" t="s">
         <v>0</v>
       </c>
@@ -57842,7 +57842,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:10" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B31" s="19">
         <v>23</v>
       </c>
@@ -57853,12 +57853,12 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="6" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B34" s="18"/>
       <c r="C34" s="18" t="s">
         <v>129</v>
@@ -57879,32 +57879,32 @@
         <v>169</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B35" s="19"/>
       <c r="C35" s="19">
         <v>80</v>
       </c>
       <c r="D35" s="20">
-        <f>[1]!MF_dPpipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_)</f>
-        <v>0</v>
+        <f>[1]!MF_dPpipe_atm(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_)</f>
+        <v>19.113332948052559</v>
       </c>
       <c r="E35" s="20">
-        <f t="array" ref="E35:F35">[1]!MF_dPpipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_)</f>
-        <v>0</v>
+        <f t="array" ref="E35:F35">[1]!MF_dPpipe_atm(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_)</f>
+        <v>19.113332948052559</v>
       </c>
       <c r="F35" s="9">
-        <v>0</v>
-      </c>
-      <c r="G35" s="25">
-        <f>[1]!MF_dPpipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_,,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="25">
-        <f>[1]!MF_dPpipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="G35" s="23">
+        <f>[1]!MF_dPpipe_atm(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_,,0)</f>
+        <v>19.046574379082735</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="array" ref="H35">[1]!MF_dPpipe_atm(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_,0)</f>
+        <v>8.6561284852987086E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15.75" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D36" s="18" t="s">
         <v>0</v>
       </c>
@@ -57921,25 +57921,25 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="D37" s="20">
         <f>[1]!MF_Ppipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_)</f>
-        <v>21</v>
+        <v>40.113332948052559</v>
       </c>
       <c r="E37" s="20">
         <f t="array" ref="E37:F37">[1]!MF_Ppipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_)</f>
-        <v>21</v>
+        <v>40.113332948052559</v>
       </c>
       <c r="F37" s="9">
-        <v>23</v>
-      </c>
-      <c r="G37" s="25">
+        <v>34</v>
+      </c>
+      <c r="G37" s="23">
         <f>[1]!MF_Ppipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_,,0)</f>
-        <v>21</v>
-      </c>
-      <c r="H37" s="25">
+        <v>40.046574379082735</v>
+      </c>
+      <c r="H37" s="23">
         <f>[1]!MF_Ppipe_atma(Qliq_,fw_,H0_,H1_,Pin_,T0_,theta_,dpipe_,,gamma_wat_,gamma_oil_,gamma_wat_,Rsb_,Rp_,Pb_,Tres_,Bob_,muob_,,Ksep_,Psep_,Tsep_,,T1_,0)</f>
-        <v>21</v>
+        <v>21.086561284852987</v>
       </c>
     </row>
   </sheetData>
